--- a/projects/test_building/input/Scenario_InterestRate.xlsx
+++ b/projects/test_building/input/Scenario_InterestRate.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE591B-6583-324B-92FC-15B3044C08FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,54 +216,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS18" totalsRowShown="0">
-  <autoFilter ref="A1:AS18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AS18" totalsRowShown="0">
+  <autoFilter ref="A1:AS18"/>
   <tableColumns count="45">
-    <tableColumn id="45" xr3:uid="{A52BC4B3-272C-334D-88CE-268D097045E0}" name="id_region"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_sector"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_subsector"/>
-    <tableColumn id="3" xr3:uid="{01A88D61-BE79-4F48-AC5B-F8A7A10ACDC1}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{A7052EC2-1345-524B-83BA-08FA0B3A5129}" name="2010"/>
-    <tableColumn id="5" xr3:uid="{2847A2B0-A97A-4049-AB47-4B6121EFB48C}" name="2011"/>
-    <tableColumn id="6" xr3:uid="{4E95E908-CFA4-0B42-8ABE-8259F89CF423}" name="2012"/>
-    <tableColumn id="7" xr3:uid="{D9AF888A-D854-B544-A59D-CC2F5B0E91BC}" name="2013"/>
-    <tableColumn id="8" xr3:uid="{36CD5C33-AFBD-B34F-A3E2-5521874930E9}" name="2014"/>
-    <tableColumn id="9" xr3:uid="{012315EF-4E54-B14E-9DE6-1B490AD25E5A}" name="2015"/>
-    <tableColumn id="10" xr3:uid="{40927B9D-ADAD-3B4D-8185-68E0C821920D}" name="2016"/>
-    <tableColumn id="11" xr3:uid="{AFA77348-45A2-ED46-8BD5-32B486A47024}" name="2017"/>
-    <tableColumn id="12" xr3:uid="{04EE8165-532E-3E4A-A898-83302B6E8C37}" name="2018"/>
-    <tableColumn id="13" xr3:uid="{BD8DD558-5A78-384A-9EAC-52469445E72C}" name="2019"/>
-    <tableColumn id="14" xr3:uid="{F50020C8-057D-7143-BC10-7418BB3157B0}" name="2020"/>
-    <tableColumn id="15" xr3:uid="{FDAA10F0-926D-6645-92A0-B8D068DF5AD3}" name="2021"/>
-    <tableColumn id="16" xr3:uid="{E3DAB9B6-649E-9340-B511-50E1D0A498CA}" name="2022"/>
-    <tableColumn id="17" xr3:uid="{9A1E63FF-AEC0-5E4C-B5D1-51C1070DF563}" name="2023"/>
-    <tableColumn id="18" xr3:uid="{B9FE0AC7-6C20-DD4D-AAC7-240E712CDB41}" name="2024"/>
-    <tableColumn id="19" xr3:uid="{3C92CE03-84F0-B64A-A3F9-EC6D3F3556B1}" name="2025"/>
-    <tableColumn id="20" xr3:uid="{1BEFDED1-FE31-5C46-AF7F-12FB14C3E98A}" name="2026"/>
-    <tableColumn id="21" xr3:uid="{B4F0B098-745C-E048-9FB5-7DB234266CB2}" name="2027"/>
-    <tableColumn id="22" xr3:uid="{6E3C2726-1154-5A42-A02F-A9B85D6B5011}" name="2028"/>
-    <tableColumn id="23" xr3:uid="{50CFE1B8-2D9C-0F42-986C-46FFE33BB7A2}" name="2029"/>
-    <tableColumn id="24" xr3:uid="{38932AA4-368C-EB4F-B9AA-E949DE081C5F}" name="2030"/>
-    <tableColumn id="25" xr3:uid="{708D85D5-6CB0-6648-A11B-CAFA7BB81284}" name="2031"/>
-    <tableColumn id="26" xr3:uid="{E55AE5C6-BA02-DB47-AD7A-7158197C17F2}" name="2032"/>
-    <tableColumn id="27" xr3:uid="{3F2BB720-223D-E24F-92C6-9EEC039548BA}" name="2033"/>
-    <tableColumn id="28" xr3:uid="{66F37C65-CC38-7841-BCBC-DA190A7B76CF}" name="2034"/>
-    <tableColumn id="29" xr3:uid="{761E4A6B-11E5-C948-A8CD-555B40021629}" name="2035"/>
-    <tableColumn id="30" xr3:uid="{E5D52E2E-9623-DF4A-A734-FC3FB3B9A521}" name="2036"/>
-    <tableColumn id="31" xr3:uid="{E95FF2EC-602A-1C48-8259-BCAA3222453D}" name="2037"/>
-    <tableColumn id="32" xr3:uid="{7249BB0A-F6D3-9F46-8231-F2E985650807}" name="2038"/>
-    <tableColumn id="33" xr3:uid="{CE025033-C975-0844-B2C4-FCFC571F2E0D}" name="2039"/>
-    <tableColumn id="34" xr3:uid="{5B6E94D7-8EA4-3C4C-B233-BC9BF43E7085}" name="2040"/>
-    <tableColumn id="35" xr3:uid="{6BA09C4E-33B5-574F-A1A5-819C823469DC}" name="2041"/>
-    <tableColumn id="36" xr3:uid="{13AF5C7E-ED94-9944-995B-85499514A432}" name="2042"/>
-    <tableColumn id="37" xr3:uid="{1DCA3FD4-C01D-0040-BF7F-2391CCA1B794}" name="2043"/>
-    <tableColumn id="38" xr3:uid="{E1563D87-583A-8142-8A81-6107A9066604}" name="2044"/>
-    <tableColumn id="39" xr3:uid="{7476F312-07D4-3342-83E8-CAF9C0CF0954}" name="2045"/>
-    <tableColumn id="40" xr3:uid="{7DD6E04E-8F12-2941-BC83-29AC1F9C6B7E}" name="2046"/>
-    <tableColumn id="41" xr3:uid="{66F9BFA5-8DC3-E941-B46E-429FFDFC4AB4}" name="2047"/>
-    <tableColumn id="42" xr3:uid="{D87D9DF2-08AC-1148-AFF7-BE3C1F960FDD}" name="2048"/>
-    <tableColumn id="43" xr3:uid="{B2E8C31D-AEB8-AD47-8F42-CC5F6A433603}" name="2049"/>
-    <tableColumn id="44" xr3:uid="{1F6218A9-A67D-B740-A2CF-4D75FD72FA39}" name="2050"/>
+    <tableColumn id="45" name="id_region"/>
+    <tableColumn id="1" name="id_sector"/>
+    <tableColumn id="2" name="id_subsector"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="2010"/>
+    <tableColumn id="5" name="2011"/>
+    <tableColumn id="6" name="2012"/>
+    <tableColumn id="7" name="2013"/>
+    <tableColumn id="8" name="2014"/>
+    <tableColumn id="9" name="2015"/>
+    <tableColumn id="10" name="2016"/>
+    <tableColumn id="11" name="2017"/>
+    <tableColumn id="12" name="2018"/>
+    <tableColumn id="13" name="2019"/>
+    <tableColumn id="14" name="2020"/>
+    <tableColumn id="15" name="2021"/>
+    <tableColumn id="16" name="2022"/>
+    <tableColumn id="17" name="2023"/>
+    <tableColumn id="18" name="2024"/>
+    <tableColumn id="19" name="2025"/>
+    <tableColumn id="20" name="2026"/>
+    <tableColumn id="21" name="2027"/>
+    <tableColumn id="22" name="2028"/>
+    <tableColumn id="23" name="2029"/>
+    <tableColumn id="24" name="2030"/>
+    <tableColumn id="25" name="2031"/>
+    <tableColumn id="26" name="2032"/>
+    <tableColumn id="27" name="2033"/>
+    <tableColumn id="28" name="2034"/>
+    <tableColumn id="29" name="2035"/>
+    <tableColumn id="30" name="2036"/>
+    <tableColumn id="31" name="2037"/>
+    <tableColumn id="32" name="2038"/>
+    <tableColumn id="33" name="2039"/>
+    <tableColumn id="34" name="2040"/>
+    <tableColumn id="35" name="2041"/>
+    <tableColumn id="36" name="2042"/>
+    <tableColumn id="37" name="2043"/>
+    <tableColumn id="38" name="2044"/>
+    <tableColumn id="39" name="2045"/>
+    <tableColumn id="40" name="2046"/>
+    <tableColumn id="41" name="2047"/>
+    <tableColumn id="42" name="2048"/>
+    <tableColumn id="43" name="2049"/>
+    <tableColumn id="44" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,21 +531,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -683,7 +683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
